--- a/data/tabela_de_recursos.xlsx
+++ b/data/tabela_de_recursos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="252">
   <si>
     <t>quantidade</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Tela Simples</t>
   </si>
   <si>
-    <t>Animação de alta complexidade</t>
-  </si>
-  <si>
     <t>unidade de projeto</t>
   </si>
   <si>
@@ -156,15 +153,6 @@
     <t>Personagem de alta complexidade</t>
   </si>
   <si>
-    <t>Desenvolvimento de cenário 3D</t>
-  </si>
-  <si>
-    <t>Demonstrativo de curso – curta duração</t>
-  </si>
-  <si>
-    <t>Demonstrativo de curso</t>
-  </si>
-  <si>
     <t>Locução</t>
   </si>
   <si>
@@ -177,42 +165,9 @@
     <t>Produção CD Rom / DVD Rom</t>
   </si>
   <si>
-    <t>minuto de video finalizado</t>
-  </si>
-  <si>
-    <t>hora</t>
-  </si>
-  <si>
-    <t>Revisao técnica</t>
-  </si>
-  <si>
-    <t>Revisão gramatical</t>
-  </si>
-  <si>
-    <t>Tradução de Conteudos</t>
-  </si>
-  <si>
-    <t>Storyboard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descrição do recurso ou serviço  </t>
   </si>
   <si>
-    <t>Base de dados (Moodle)</t>
-  </si>
-  <si>
-    <t>Chat (Moodle)</t>
-  </si>
-  <si>
-    <t>Enquete (Moodle)</t>
-  </si>
-  <si>
-    <t>Fórum (Moodle)</t>
-  </si>
-  <si>
-    <t>Glossário (Moodle)</t>
-  </si>
-  <si>
     <t>Laboratório de avaliação  (Moodle)</t>
   </si>
   <si>
@@ -252,12 +207,6 @@
     <t>nm_storyboards</t>
   </si>
   <si>
-    <t xml:space="preserve">DI, Sistemas, Comunicação </t>
-  </si>
-  <si>
-    <t>Pedagógico, Técnico</t>
-  </si>
-  <si>
     <t xml:space="preserve">Página HTML publicada </t>
   </si>
   <si>
@@ -279,15 +228,9 @@
     <t>Projeto Gráfico (por curso)</t>
   </si>
   <si>
-    <t>Tratamento de Imagem</t>
-  </si>
-  <si>
     <t>Jogo pedagógico para exercício e avaliações de baixa complexidade</t>
   </si>
   <si>
-    <t>Jogo pedagógico para exercício e avaliações  de media complexidade</t>
-  </si>
-  <si>
     <t>Jogo pedagógico Simples</t>
   </si>
   <si>
@@ -297,9 +240,6 @@
     <t xml:space="preserve">Questionário múltipla escolha </t>
   </si>
   <si>
-    <t>Empacotamento  SCORM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Página de conteúdo de conteúdo estático que pode conter imagens, textos, ou outros recursos incorporados (por exemplo vídeos ou documentos). </t>
   </si>
   <si>
@@ -324,9 +264,6 @@
     <t>PPT Animado com áudio</t>
   </si>
   <si>
-    <t xml:space="preserve">Imagem de banco </t>
-  </si>
-  <si>
     <t>Objeto de aprendizagem HTML5 (customizado)</t>
   </si>
   <si>
@@ -585,57 +522,9 @@
     <t>av2</t>
   </si>
   <si>
-    <t>Animação de média complexidade</t>
-  </si>
-  <si>
-    <t>Animação de média complexidade com áudio</t>
-  </si>
-  <si>
-    <t>Atualização de conteúdo educacional (já desenvolvido)</t>
-  </si>
-  <si>
-    <t>Digitação de textos</t>
-  </si>
-  <si>
     <t>Produção de efeito sonoro</t>
   </si>
   <si>
-    <t>Escaneamento de elementos</t>
-  </si>
-  <si>
-    <t>História em quadrinhos</t>
-  </si>
-  <si>
-    <t>Captura de imagem</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de conteúdos de alta complexidade</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de conteúdos  de baixa complexidade</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de conteúdos de média complexidade</t>
-  </si>
-  <si>
-    <t>Ilustração de alta Complexidade</t>
-  </si>
-  <si>
-    <t>Ilustração de baixa Complexidade</t>
-  </si>
-  <si>
-    <t>Ilustração de média Complexidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item de questão </t>
-  </si>
-  <si>
-    <t>Item de questão (Moodle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jogo pedagógico com locução para exercícios e avaliações  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sequência expositiva com atividade   </t>
   </si>
   <si>
@@ -651,30 +540,12 @@
     <t>Produção de vídeo</t>
   </si>
   <si>
-    <t>Animação gráfica simples de curta duração (5 segundos no máximo). Envolve o deslocamento, alteração de escala de imagens estáticas, efeitos de transição</t>
-  </si>
-  <si>
-    <t>Animação grafica de duração intermediária (6 a 15 segundos) e de complexidade media (2D com nuances de cores). Movimentos mais complexos com interatividade (intervenção do aluno).</t>
-  </si>
-  <si>
-    <t>Animação gráfica de longa duração (entre 16 e 30 segundos), com opção de Locução e/ou Legenda. Pode ser utilizada em simulações ou tutoriais de prática contextualizada, apresentando posições diferentes e sequenciais sobre a tela, movimentos em 2D ou 3D complexos com interatividade (intervenção do aluno). Em caso de simulações devem ser programadas opções de respostas abertas que são condicionadas a intervenção do aluno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animação grafica de duração intermediária (6 a 15 segundos) e de complexidade media (2D com nuances de cores). Movimentos mais complexos com interatividade (intervenção do aluno) - Inclui a produção de áudio </t>
-  </si>
-  <si>
     <t xml:space="preserve">Número de roteiros </t>
   </si>
   <si>
     <t>nm_roteiros</t>
   </si>
   <si>
-    <t>Animação no formato .MP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animação de baixa complexidade </t>
-  </si>
-  <si>
     <t xml:space="preserve">tempo_desenvolvimento  </t>
   </si>
   <si>
@@ -693,15 +564,6 @@
     <t>Tutorial de navegação Camtasia (até 5 min)</t>
   </si>
   <si>
-    <t>Atualização de conteudo de curso já desenvolvido, em virtude de mudanças ocasionadas por alterações tais como – mudança das normas/legislações pertinentes, alterações nas regras gramaticais adotadas no país, e outros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquivo .doc com conteúdo atualizado </t>
-  </si>
-  <si>
-    <t>Permite criar, manter e pesquisar dados em um banco de entradas de registros. O formato e a estrutura dessas entradas são quase que ilimitadas, incluem imagens, arquivos, URL's, números, textos e etc.</t>
-  </si>
-  <si>
     <t>Estimativa de tempo  ( Só inclui tempo da equipe de design instrucional )</t>
   </si>
   <si>
@@ -714,154 +576,7 @@
     <t>Recurso publicado dentro do Moodle</t>
   </si>
   <si>
-    <t>Captura de imagens ou texto OCR (Optical Character Recognition) em material impresso por meio eletronico – scanner, em resolução   especificada pelo que for requerido no curso</t>
-  </si>
-  <si>
-    <t>Imagem capturada</t>
-  </si>
-  <si>
-    <t>Imagem no formato png, jpg o pdf</t>
-  </si>
-  <si>
-    <t>Recurso de comunicação síncrona dentro do Moodle</t>
-  </si>
-  <si>
-    <t>Curso completo no formato Adobe presenter (PPT com áudio )</t>
-  </si>
-  <si>
-    <t>Curso no formato Adobe Presenter (até 2 horas de duração ou 120 Telas )</t>
-  </si>
-  <si>
-    <t>Curso completo no formato SCORM ou HTML5 ( pronto para publicação )</t>
-  </si>
-  <si>
-    <t>Curso completo no formato Adobe presenter (PPT com áudio)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento de piloto de curso de até 20 telas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento de piloto de curso de até 10 telas </t>
-  </si>
-  <si>
-    <t>Storyboard com especificação da demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo do curso no formato Scorm </t>
-  </si>
-  <si>
-    <t>Desenvolvimento de cena/ambiente, com elementos complexos em 3D com textura, onde os personagens poderão ser inseridos, buscando proporcionar a materialização da metáfora do curso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storyboard com especificação do cenário </t>
-  </si>
-  <si>
-    <t>Cenário 3D no formato .fbx</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de conteúdo de nível  básico, personalizado/customizado, seguindo especificações de ementa definida e considerando a inserção de recursos didáticos (praticas, exercicios, exemplos, dialogos, jogos, imagens, etc), que estimulem a construção das habilidades e competencias, trabalhando com a concepção utilizada pela necessidade do curso, descrita em seu objeto para alcançar os objetivos do curso. A linguagem deverá ser adequada à midia e ao publico alvo.
-Conteudo desenvolvido por profissional especializado, acompanhado de declaração do profissional de ineditismo do conteudo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquivo .doc com conteúdo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquivo .doc com conteúdo produzido  </t>
-  </si>
-  <si>
-    <t>Desenvolvimento de conteudo para nivel tecnico, personalizado/customizado, seguindo especificações de ementa definida e considerando a inserção de recursos didáticos (praticas, exercicios, exemplos, diálogos, jogos, imagens, etc) que estimulem a construção das habilidades e competencias, trabalhando com a concepção determinada pelo curso. A linguagem deverá ser adequada à midia e ao publico- alvo.
-Conteudo desenvolvido por profissional especializado, acompanhado de declaração do profissional de ineditismo do conteúdo.</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de conteudo para nível superior, seguindo especificações de ementa definida e considerando a inserção de recursos didáticos (praticas, exercicios, exemplos, diálogos, jogos, imagens, etc) que estimulem a construção das habilidades e competencias, trabalhando com a concepção determinada pelo curso. A linguagem deverá ser adequada à midia e ao publico- alvo.
-Conteudo desenvolvido por profissional especializado, acompanhado de declaração do profissional de ineditismo do conteúdo.</t>
-  </si>
-  <si>
-    <t>Formatação de contéudo (texto/imagem) em projeto grafico. De acordo com o que o curso determinar, poderá ser desenvolvida por meio da aplicativos Word ou In Design, sendo o arquivo final entregue em Acrobat (pdf) ou eps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storyboard com página diagramada </t>
-  </si>
-  <si>
-    <t>Diagramação de página (digital)</t>
-  </si>
-  <si>
-    <t>Conteúdo diagramado em página do AVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquivo .doc com conteúdo digitado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empacotamento de recurso pronto para o formato SCORM (Sem atividades) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacote Scorm </t>
-  </si>
-  <si>
-    <t>Arquivo zip com recurso no padrão SCORM</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de recurso de enquete para o Moodle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digitalização de conteúdos em papel via Scanner </t>
-  </si>
-  <si>
-    <t>Digitação de texto a partir de materiais impressos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">página </t>
-  </si>
-  <si>
-    <t>Conteúdo scanneado no formato png, jpeg ou pdf</t>
-  </si>
-  <si>
-    <t>Produção de fórum no Moodle (O fórum é uma atividade de debate/discussão predominantemente assíncrona. Permite a interação direta entre cursistas e entre cursistas e professores, mediadores e outros perfis.)</t>
-  </si>
-  <si>
-    <t>Produção de ferramenta de glossário no Moodle ( limitada a 15 mil caracteres com espaços ).</t>
-  </si>
-  <si>
-    <t>Produção de história em quadrinhos com até 10 quadros e figuras de banco de imagens</t>
-  </si>
-  <si>
-    <t>Arquivo jpeg, png ou pdf com o recurso</t>
-  </si>
-  <si>
-    <t>Arquivo .doc com briefing da imagem</t>
-  </si>
-  <si>
-    <t>Recurso grafico, estampa, desenho tecnico, foto, cenário, quadrinho ou outro elemento ilustrativo, que se destina a auxiliar na compreensão dos conteúdos tecnicos abordados aos quais a ilustração está associada. Elaborado em p&amp;b e/ou em cores.</t>
-  </si>
-  <si>
-    <t>Recurso grafico, estampa, desenho tecnico, foto, cenário, quadrinho ou outro elemento ilustrativo, que se destina a auxiliar na compreensão dos conteudos tecnicos abordados, aos quais a imagem a ser produzida está associada. Elaborado em p&amp;b e/ou cores.</t>
-  </si>
-  <si>
-    <t>Recurso para integrar ou compor uma ou mais telas =
-Recurso grafico, estampa, desenho tecnico, foto, cenário, quadrinh ou outro elemento ilustrativo, que se destina a auxiliar na compreensão dos conteudos tecnicos abordados aos quais a ilustração esta associada. Elaborado em p&amp;b e/ou em cores.</t>
-  </si>
-  <si>
-    <t>Imagem de banco de imagem</t>
-  </si>
-  <si>
-    <t>Produção de item de multipla escolha, com até 4 alternativas, 1 correta e feedbacks gerais para respostas corretas e incorretas</t>
-  </si>
-  <si>
-    <t>Produção de item para questionário do Moodle</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de objeto de aprendizagem que busca aplicar os conteudos adquiridos, comumente aplicando uma serie de transações que progridem até um fim bem definido e previsivel. Resultado final da associação de etapas de ilustração, simulação, programação e locução. O jogo ou Quiz deve ser considerado um unico objeto de aprendizagem com armazenagem de pontuação em banco de dados e deve ter locução e/ou legenda.</t>
-  </si>
-  <si>
-    <t>Recurso para integrar ou compor uma ou mais telas – Desenvolvimento de objeto de aprendizagem que busca aplicar conteudos adquiridos, comumente aplicando uma série de transações que progridem até um fim bem definido e previsivel. Resultado final da associação das etapas de ilustração, simulação e programação. O jogo ou Quiz deve ser considerado um unico objeto de aprendizado com armazenagem de pontuação em bando de dados LMS.</t>
-  </si>
-  <si>
     <t>Jogo customizado simples limitado a 48horas de produção</t>
-  </si>
-  <si>
-    <t>esenvolvimento de objeto de aprendizagem que busca aplicar os conteúdos adquiridos, comumente aplicando uma serie de tansações que progridem até um fim bem definido e previsivel.
-Resultado final da associação das etapas de ilustração, simulação e programação. O jogo ou Quiz deve ser considerado um unico objeto de aprendizagem com armazenagem de pontuação em banco de dados LMS. Elaborado em Flash.
-Exemplos: jogo de memoria, palavra cruzada, caça palavras, tabuleiro.</t>
   </si>
   <si>
     <t>Sequência expositiva com até 15mil caracteres com espaço e 10 imagens e 2 questões de múltipla escolha</t>
@@ -926,23 +641,12 @@
 Desenvolvimento de roteiro, produção e sonorização. Não se deve prever ator nem montagem de cenario fisico.</t>
   </si>
   <si>
-    <t>Conceber o projeto grafico do curso/portal, considerando arte, ícones, traço de ilustrações, personagens entre outros.
-O Projeto Grafico pode ser desenvolvido para as versões impressa e on line, estando alinhado com o projeto educacional.
-Esta tarefa deve ser realizada em parceria com o conteudista e a equipe de EAD.</t>
-  </si>
-  <si>
     <t>Organização de questionário  (não inclui questões).</t>
   </si>
   <si>
     <t xml:space="preserve">Relatório de análise prévia e contextual </t>
   </si>
   <si>
-    <t xml:space="preserve">Revisão gramatical de textos </t>
-  </si>
-  <si>
-    <t>Revisão técnica  de textos  (quanto a organização, linguagem e estrutura)</t>
-  </si>
-  <si>
     <t>Produção de vídeo de até 5 minutos.</t>
   </si>
   <si>
@@ -952,24 +656,9 @@
     <t xml:space="preserve">Produção de tela de unidade/curso, incluindo textos, hiperlinks, botões com formas geometricas simples (circulos, retangulos, setas e etc) e icones (sair, fechar, mais e etc) utilizando os padrões para desenvolvimento web (web standards), como- css, tablets, acessibilidade e etc. Podendo ser composta tambem por elementos já existentes ou outros itens já produzidos , não gerando, portanto, custos adicionais. </t>
   </si>
   <si>
-    <t>Produção de tela dinâmica utilizando a linguagem de programação javascript. Poderá tambem conter elementos descritos no iten Tela simples, se o resultado a ser alcançado assim determinar.
-Exemplos de telas dinamicas são –
-* Simulações ou tutoriais de pratica contextualizada, exercicios de Fixação e/ou Avaliação de Conhecimentos.
-* Telas de exercicios de multipla escolha, verdadeiro ou falso, reflexão / auto-avaliação, relacionar colunas/classificar, digitar respostas curtas, priorizar/ordenar/posicionar/completar lacunas, checklist/lista de verificação ou outro tipo de exercicio.</t>
-  </si>
-  <si>
-    <t>Tradução de conteúdos em inglês ou espanhol para o português</t>
-  </si>
-  <si>
     <t>Tutorial de navegação profissional de até 5 minutos utilizando o software Camtasia</t>
   </si>
   <si>
-    <t xml:space="preserve">Edição de imagem </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produção de video-aulo de até 5 minutos </t>
-  </si>
-  <si>
     <t>Desenvolvimento do recurso wiki do Moodle</t>
   </si>
   <si>
@@ -979,35 +668,123 @@
     <t xml:space="preserve">Briefing e Storyboard com especificação do recurso </t>
   </si>
   <si>
-    <t>Arquivo de imagem png ou jpeg</t>
-  </si>
-  <si>
-    <t>Roteiro da animação e briefing</t>
-  </si>
-  <si>
-    <t>Roteiro da animação  e briefing</t>
-  </si>
-  <si>
     <t>nm_briefings</t>
   </si>
   <si>
-    <t>Arquivo .doc com questão especificada</t>
-  </si>
-  <si>
-    <t>Arquivo .doc com questão</t>
-  </si>
-  <si>
     <t>Jogo pronto no formato HTML5</t>
   </si>
   <si>
     <t>Jogo pronto no formato HTML5*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo .doc com briefing do recurso </t>
+  </si>
+  <si>
+    <t>Recurso pronto no formato scorm*</t>
+  </si>
+  <si>
+    <t>Recurso pronto no formato scorm</t>
+  </si>
+  <si>
+    <t>PDF pronto</t>
+  </si>
+  <si>
+    <t>PDF finalizado</t>
+  </si>
+  <si>
+    <t>Briefing com especificação do recurso</t>
+  </si>
+  <si>
+    <t>Personagem pronto .fbx, png ou jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roteiro com especificação do recurso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo .mp4 </t>
+  </si>
+  <si>
+    <t>DVD ou Cd Customizado</t>
+  </si>
+  <si>
+    <t>Storyboads + Briefing + Wireframes de especificação do  AVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiente customizado </t>
+  </si>
+  <si>
+    <t>Arquivo .mp3</t>
+  </si>
+  <si>
+    <t>10 unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacote com 10 ícones </t>
+  </si>
+  <si>
+    <t>minuto de vídeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Briefing com especificação do PIV </t>
+  </si>
+  <si>
+    <t>Vídeo finalizado no formato mp4</t>
+  </si>
+  <si>
+    <t>Arquivo .doc com plano de identidade visual</t>
+  </si>
+  <si>
+    <t>Questionário publicado no ambiente</t>
+  </si>
+  <si>
+    <t>Relatório de análise de contexto em pdf</t>
+  </si>
+  <si>
+    <t>Relatório no formato .doc ou .pdf</t>
+  </si>
+  <si>
+    <t>Video no formato .mp4</t>
+  </si>
+  <si>
+    <t>Recurso publicado no ambiente</t>
+  </si>
+  <si>
+    <t>Vídeo no formato .mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produção de video-aula de até 5 minutos </t>
+  </si>
+  <si>
+    <t>Tempo em minutos video editado</t>
+  </si>
+  <si>
+    <t>Tempo em minutos video sem edição</t>
+  </si>
+  <si>
+    <t>video_editado</t>
+  </si>
+  <si>
+    <t>video_s_editado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento de objeto de aprendizagem que busca aplicar os conteúdos adquiridos, comumente aplicando uma serie de tansações que progridem até um fim bem definido e previsivel.
+Resultado final da associação das etapas de ilustração, simulação e programação. O jogo ou Quiz deve ser considerado um unico objeto de aprendizagem com armazenagem de pontuação em banco de dados LMS. Elaborado em Flash.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produção de tela dinâmica utilizando a linguagem de programação javascript. Poderá tambem conter elementos descritos no iten Tela simples, se o resultado a ser alcançado assim determinar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceber o projeto grafico do curso/portal, considerando arte, ícones, traço de ilustrações, personagens entre outros.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,6 +822,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1096,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1123,15 +908,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1433,12 +1225,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AJ50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomLeft" activeCell="AM32" sqref="AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,9 +1238,9 @@
     <col min="1" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="10.6328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" customWidth="1"/>
     <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.81640625" customWidth="1"/>
@@ -1472,9 +1264,11 @@
     <col min="31" max="31" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1279,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>20</v>
@@ -1493,14 +1287,14 @@
       <c r="F1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="G1" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="7" t="s">
         <v>23</v>
       </c>
@@ -1532,13 +1326,13 @@
         <v>32</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="7" t="s">
         <v>33</v>
@@ -1562,15 +1356,21 @@
         <v>40</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -1588,22 +1388,22 @@
         <v>0</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>22</v>
@@ -1636,13 +1436,13 @@
         <v>13</v>
       </c>
       <c r="W2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="X2" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="Y2" s="8" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>14</v>
@@ -1660,30 +1460,36 @@
         <v>37</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9">
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>3</v>
@@ -1692,26 +1498,26 @@
         <v>1</v>
       </c>
       <c r="G3" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J3" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="9">
-        <f>SUM(G3+H3+I3+J3+K3)</f>
+        <f t="shared" ref="L3:L34" si="0">SUM(G3+H3+I3+J3+K3)</f>
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="N3" s="9">
         <v>0</v>
@@ -1720,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
@@ -1741,19 +1547,19 @@
         <v>3</v>
       </c>
       <c r="W3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="9">
         <v>1</v>
       </c>
       <c r="Y3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
@@ -1764,53 +1570,59 @@
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2</v>
+      <c r="AI3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9">
+        <v>33</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2</v>
-      </c>
-      <c r="J4" s="9">
-        <v>2</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:L67" si="0">SUM(G4+H4+I4+J4+K4)</f>
-        <v>9</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>318</v>
-      </c>
       <c r="N4" s="9">
         <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="9">
         <v>1</v>
@@ -1825,25 +1637,25 @@
         <v>1</v>
       </c>
       <c r="T4" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" s="9">
         <v>2</v>
       </c>
       <c r="W4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <v>1</v>
       </c>
       <c r="Y4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="9">
         <v>1</v>
@@ -1857,20 +1669,26 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B5" s="9">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1878,26 +1696,26 @@
         <v>1</v>
       </c>
       <c r="G5" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>318</v>
+        <v>184</v>
       </c>
       <c r="N5" s="9">
         <v>0</v>
@@ -1909,16 +1727,16 @@
         <v>2</v>
       </c>
       <c r="Q5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" s="9">
         <v>1</v>
       </c>
       <c r="T5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" s="9">
         <v>0</v>
@@ -1927,42 +1745,48 @@
         <v>2</v>
       </c>
       <c r="W5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B6" s="9">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>3</v>
@@ -1974,29 +1798,29 @@
         <v>4</v>
       </c>
       <c r="H6" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" s="9">
         <v>6</v>
       </c>
       <c r="J6" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K6" s="9">
         <v>1</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>318</v>
+        <v>184</v>
       </c>
       <c r="N6" s="9">
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="9">
         <v>2</v>
@@ -2005,112 +1829,118 @@
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA6" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9">
+        <v>36</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="I7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="9">
         <v>1</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(G7+H7+I7+J7+K7)</f>
+        <v>15</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="N7" s="9">
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
       </c>
       <c r="V7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="9">
         <v>0</v>
@@ -2119,51 +1949,57 @@
         <v>0</v>
       </c>
       <c r="Y7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA7" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
-    </row>
-    <row r="8" spans="1:34" ht="22" x14ac:dyDescent="0.35">
+      <c r="AI7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>227</v>
+        <v>45</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F8" s="9">
         <v>1</v>
       </c>
       <c r="G8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="9">
         <v>0</v>
@@ -2173,46 +2009,46 @@
       </c>
       <c r="L8" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="N8" s="9">
         <v>0</v>
       </c>
       <c r="O8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="9">
         <v>0</v>
       </c>
       <c r="S8" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T8" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U8" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" s="9">
         <v>0</v>
       </c>
       <c r="X8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="9">
         <v>0</v>
@@ -2224,39 +2060,45 @@
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B9" s="9">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
       </c>
       <c r="G9" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
       </c>
       <c r="I9" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -2266,10 +2108,10 @@
       </c>
       <c r="L9" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="N9" s="9">
         <v>0</v>
@@ -2278,22 +2120,22 @@
         <v>1</v>
       </c>
       <c r="P9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="9">
         <v>0</v>
       </c>
       <c r="R9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="9">
         <v>0</v>
       </c>
       <c r="T9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V9" s="9">
         <v>1</v>
@@ -2302,85 +2144,91 @@
         <v>0</v>
       </c>
       <c r="X9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="9">
         <v>0</v>
       </c>
       <c r="Z9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
+        <v>39</v>
+      </c>
+      <c r="B10" s="9">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6</v>
+      </c>
+      <c r="I10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>2</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2</v>
-      </c>
       <c r="J10" s="9">
         <v>3</v>
       </c>
       <c r="K10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10" s="9">
         <v>3</v>
@@ -2395,39 +2243,45 @@
         <v>0</v>
       </c>
       <c r="X10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="9">
         <v>1</v>
       </c>
       <c r="Z10" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA10" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>3</v>
@@ -2436,26 +2290,26 @@
         <v>1</v>
       </c>
       <c r="G11" s="9">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H11" s="9">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J11" s="9">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="K11" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="N11" s="9">
         <v>0</v>
@@ -2464,10 +2318,10 @@
         <v>2</v>
       </c>
       <c r="P11" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <v>2</v>
@@ -2476,51 +2330,57 @@
         <v>2</v>
       </c>
       <c r="T11" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11" s="9">
         <v>0</v>
       </c>
       <c r="X11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="9">
         <v>1</v>
       </c>
       <c r="Z11" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B12" s="9">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>3</v>
@@ -2529,50 +2389,50 @@
         <v>1</v>
       </c>
       <c r="G12" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H12" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="9">
         <v>1</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="N12" s="9">
         <v>0</v>
       </c>
       <c r="O12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="9">
         <v>1</v>
@@ -2587,33 +2447,39 @@
         <v>1</v>
       </c>
       <c r="Z12" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9" t="s">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B13" s="9">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>3</v>
@@ -2622,47 +2488,47 @@
         <v>1</v>
       </c>
       <c r="G13" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H13" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I13" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="N13" s="9">
         <v>0</v>
       </c>
       <c r="O13" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -2677,36 +2543,42 @@
         <v>0</v>
       </c>
       <c r="Y13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B14" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>3</v>
@@ -2718,23 +2590,23 @@
         <v>3</v>
       </c>
       <c r="H14" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I14" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="N14" s="9">
         <v>0</v>
@@ -2743,10 +2615,10 @@
         <v>3</v>
       </c>
       <c r="P14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="9">
         <v>3</v>
@@ -2755,22 +2627,22 @@
         <v>0</v>
       </c>
       <c r="T14" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U14" s="9">
         <v>0</v>
       </c>
       <c r="V14" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W14" s="9">
         <v>0</v>
       </c>
       <c r="X14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="9">
         <v>0</v>
@@ -2782,27 +2654,33 @@
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
       <c r="AH14" s="9"/>
-    </row>
-    <row r="15" spans="1:34" ht="74.5" x14ac:dyDescent="0.35">
+      <c r="AI14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B15" s="9">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>247</v>
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F15" s="9">
         <v>1</v>
@@ -2817,23 +2695,23 @@
         <v>1</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="9">
         <v>1</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="N15" s="9">
         <v>0</v>
       </c>
       <c r="O15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="9">
         <v>1</v>
@@ -2842,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S15" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15" s="9">
         <v>0</v>
@@ -2854,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" s="9">
         <v>0</v>
       </c>
       <c r="X15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="9">
         <v>0</v>
@@ -2869,76 +2747,82 @@
         <v>0</v>
       </c>
       <c r="AA15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
       <c r="AH15" s="9"/>
-    </row>
-    <row r="16" spans="1:34" ht="64" x14ac:dyDescent="0.35">
+      <c r="AI15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>251</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F16" s="9">
         <v>1</v>
       </c>
       <c r="G16" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="N16" s="9">
         <v>0</v>
       </c>
       <c r="O16" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="9">
         <v>0</v>
       </c>
       <c r="R16" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S16" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T16" s="9">
         <v>0</v>
@@ -2947,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="V16" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W16" s="9">
         <v>0</v>
       </c>
       <c r="X16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="9">
         <v>0</v>
@@ -2962,91 +2846,97 @@
         <v>0</v>
       </c>
       <c r="AA16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
-    </row>
-    <row r="17" spans="1:34" ht="64" x14ac:dyDescent="0.35">
+      <c r="AI16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B17" s="9">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>250</v>
+        <v>172</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F17" s="9">
         <v>1</v>
       </c>
       <c r="G17" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="N17" s="9">
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="9">
         <v>0</v>
       </c>
       <c r="R17" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T17" s="9">
         <v>0</v>
       </c>
       <c r="U17" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17" s="9">
         <v>0</v>
       </c>
       <c r="X17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="9">
         <v>0</v>
@@ -3055,76 +2945,82 @@
         <v>0</v>
       </c>
       <c r="AA17" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="9" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B18" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F18" s="9">
         <v>1</v>
       </c>
       <c r="G18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="9">
         <v>1</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="N18" s="9">
         <v>0</v>
       </c>
       <c r="O18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" s="9">
         <v>1</v>
@@ -3142,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="9">
         <v>0</v>
@@ -3154,82 +3050,86 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B19" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>50</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="9">
         <v>1</v>
       </c>
       <c r="G19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J19" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" s="9">
         <f>SUM(G19+H19+I19+J19+K19)</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="N19" s="9">
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="9">
         <v>0</v>
       </c>
       <c r="R19" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U19" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="9">
         <v>0</v>
@@ -3241,30 +3141,36 @@
         <v>0</v>
       </c>
       <c r="AA19" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="9" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI19" s="13">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B20" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>3</v>
@@ -3273,26 +3179,26 @@
         <v>1</v>
       </c>
       <c r="G20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="9">
         <v>2</v>
       </c>
       <c r="I20" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="9">
         <v>1</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="N20" s="9">
         <v>0</v>
@@ -3301,63 +3207,69 @@
         <v>2</v>
       </c>
       <c r="P20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="9">
         <v>0</v>
       </c>
       <c r="R20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="9">
         <v>0</v>
       </c>
       <c r="X20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="9">
         <v>0</v>
       </c>
       <c r="Z20" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="9" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
       <c r="AH20" s="9"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B21" s="9">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>3</v>
@@ -3366,103 +3278,109 @@
         <v>1</v>
       </c>
       <c r="G21" s="9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H21" s="9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J21" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K21" s="9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N21" s="9">
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
       </c>
       <c r="V21" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="9">
         <v>0</v>
       </c>
       <c r="X21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="9">
         <v>1</v>
       </c>
       <c r="Z21" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA21" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B22" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
       <c r="F22" s="9">
         <v>1</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="9">
         <v>1</v>
@@ -3475,43 +3393,43 @@
       </c>
       <c r="L22" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="N22" s="9">
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="9">
         <v>0</v>
       </c>
       <c r="R22" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="9">
         <v>0</v>
       </c>
       <c r="U22" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="9">
         <v>0</v>
       </c>
       <c r="X22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="9">
         <v>0</v>
@@ -3520,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
@@ -3531,22 +3449,28 @@
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B23" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="F23" s="9">
         <v>1</v>
@@ -3561,112 +3485,120 @@
         <v>3</v>
       </c>
       <c r="J23" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" s="9">
         <v>1</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N23" s="9">
         <v>0</v>
       </c>
       <c r="O23" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23" s="9">
         <v>0</v>
       </c>
       <c r="V23" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23" s="9">
         <v>0</v>
       </c>
       <c r="X23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="32.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B24" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>266</v>
+        <v>173</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="F24" s="9">
         <v>1</v>
       </c>
       <c r="G24" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I24" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J24" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="N24" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
       <c r="O24" s="9">
         <v>2</v>
       </c>
@@ -3677,85 +3609,91 @@
         <v>0</v>
       </c>
       <c r="R24" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T24" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U24" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="9">
         <v>0</v>
       </c>
       <c r="Y24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA24" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
       <c r="AH24" s="9"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="22" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B25" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>267</v>
+        <v>69</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F25" s="9">
         <v>1</v>
       </c>
       <c r="G25" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>315</v>
+        <v>235</v>
       </c>
       <c r="N25" s="9">
         <v>0</v>
@@ -3764,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="P25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="9">
         <v>0</v>
@@ -3773,16 +3711,16 @@
         <v>3</v>
       </c>
       <c r="S25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="9">
         <v>0</v>
       </c>
       <c r="V25" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W25" s="9">
         <v>0</v>
@@ -3791,36 +3729,42 @@
         <v>1</v>
       </c>
       <c r="Y25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
       <c r="AH25" s="9"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B26" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>3</v>
@@ -3848,28 +3792,28 @@
         <v>4</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="N26" s="9">
         <v>0</v>
       </c>
       <c r="O26" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="9">
         <v>0</v>
@@ -3881,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="X26" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="9">
         <v>1</v>
       </c>
       <c r="Z26" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="9">
         <v>1</v>
@@ -3896,24 +3840,30 @@
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B27" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>3</v>
@@ -3941,73 +3891,81 @@
         <v>4</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="N27" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
       <c r="O27" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="9">
         <v>0</v>
       </c>
       <c r="V27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="9">
         <v>0</v>
       </c>
       <c r="X27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
-    </row>
-    <row r="28" spans="1:34" ht="43" x14ac:dyDescent="0.35">
+      <c r="AI27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B28" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>272</v>
+        <v>170</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
@@ -4025,29 +3983,29 @@
         <v>0</v>
       </c>
       <c r="K28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="9">
-        <f>SUM(G28+H28+I28+J28+K28)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="N28" s="9">
         <v>0</v>
       </c>
       <c r="O28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="9">
         <v>0</v>
       </c>
       <c r="R28" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="9">
         <v>0</v>
@@ -4065,164 +4023,178 @@
         <v>0</v>
       </c>
       <c r="X28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="9">
         <v>0</v>
       </c>
       <c r="Z28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
-      <c r="AE28" s="9" t="s">
-        <v>316</v>
+      <c r="AE28" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="AF28" s="9"/>
       <c r="AG28" s="9"/>
       <c r="AH28" s="9"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B29" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
       </c>
       <c r="G29" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I29" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="L29" si="1">SUM(G29+H29+I29+J29+K29)</f>
+        <v>20</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="N29" s="9">
         <v>0</v>
       </c>
       <c r="O29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="9">
         <v>0</v>
       </c>
       <c r="R29" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S29" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
       </c>
       <c r="V29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="9">
         <v>0</v>
       </c>
       <c r="X29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA29" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9" t="s">
-        <v>316</v>
+        <v>185</v>
       </c>
       <c r="AF29" s="9"/>
       <c r="AG29" s="9"/>
       <c r="AH29" s="9"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B30" s="9">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E30" s="9"/>
+        <v>187</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F30" s="9">
         <v>1</v>
       </c>
       <c r="G30" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(G30+H30+I30+J30+K30)</f>
+        <v>17</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="N30" s="9">
         <v>0</v>
       </c>
       <c r="O30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="9">
         <v>2</v>
@@ -4231,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="9">
         <v>2</v>
@@ -4252,36 +4224,42 @@
         <v>0</v>
       </c>
       <c r="Y30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA30" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="AF30" s="9"/>
       <c r="AG30" s="9"/>
       <c r="AH30" s="9"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B31" s="9">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>3</v>
@@ -4290,56 +4268,56 @@
         <v>1</v>
       </c>
       <c r="G31" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" s="9">
         <v>0</v>
       </c>
       <c r="K31" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="N31" s="9">
         <v>0</v>
       </c>
       <c r="O31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="9">
         <v>2</v>
       </c>
       <c r="Q31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="9">
         <v>0</v>
       </c>
       <c r="U31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="9">
         <v>0</v>
@@ -4351,95 +4329,103 @@
         <v>0</v>
       </c>
       <c r="AA31" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B32" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
       </c>
       <c r="G32" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I32" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J32" s="9">
-        <v>4</v>
-      </c>
-      <c r="K32" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
       <c r="L32" s="9">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>323</v>
+        <v>184</v>
       </c>
       <c r="N32" s="9">
         <v>0</v>
       </c>
       <c r="O32" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P32" s="9">
         <v>2</v>
       </c>
       <c r="Q32" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S32" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T32" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U32" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V32" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W32" s="9">
         <v>0</v>
       </c>
       <c r="X32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="9">
         <v>1</v>
       </c>
       <c r="Z32" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="9">
         <v>1</v>
@@ -4448,24 +4434,30 @@
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
       <c r="AE32" s="9" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
       <c r="AH32" s="9"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B33" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>277</v>
+        <v>68</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>3</v>
@@ -4474,26 +4466,26 @@
         <v>1</v>
       </c>
       <c r="G33" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I33" s="9">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J33" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="9">
         <v>2</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>323</v>
+        <v>184</v>
       </c>
       <c r="N33" s="9">
         <v>0</v>
@@ -4508,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S33" s="9">
         <v>1</v>
@@ -4517,22 +4509,22 @@
         <v>3</v>
       </c>
       <c r="U33" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V33" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W33" s="9">
         <v>0</v>
       </c>
       <c r="X33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="9">
         <v>1</v>
       </c>
       <c r="Z33" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AA33" s="9">
         <v>1</v>
@@ -4541,24 +4533,30 @@
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
-    </row>
-    <row r="34" spans="1:34" ht="64" x14ac:dyDescent="0.35">
+      <c r="AI33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B34" s="9">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>279</v>
+        <v>41</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>3</v>
@@ -4567,65 +4565,65 @@
         <v>1</v>
       </c>
       <c r="G34" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34" s="9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J34" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>323</v>
+        <v>184</v>
       </c>
       <c r="N34" s="9">
         <v>0</v>
       </c>
       <c r="O34" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P34" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="9">
         <v>0</v>
       </c>
       <c r="R34" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S34" s="9">
         <v>1</v>
       </c>
       <c r="T34" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U34" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V34" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W34" s="9">
         <v>0</v>
       </c>
       <c r="X34" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="9">
         <v>1</v>
       </c>
       <c r="Z34" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AA34" s="9">
         <v>1</v>
@@ -4634,52 +4632,56 @@
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B35" s="9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="9">
         <v>3</v>
       </c>
       <c r="I35" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J35" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="9">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" ref="L35:L37" si="2">SUM(G35+H35+I35+J35+K35)</f>
+        <v>11</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>323</v>
+        <v>184</v>
       </c>
       <c r="N35" s="9">
         <v>0</v>
@@ -4688,19 +4690,19 @@
         <v>2</v>
       </c>
       <c r="P35" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="9">
         <v>0</v>
       </c>
       <c r="R35" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S35" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U35" s="9">
         <v>2</v>
@@ -4712,39 +4714,45 @@
         <v>0</v>
       </c>
       <c r="X35" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="9">
         <v>1</v>
       </c>
       <c r="Z35" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B36" s="9">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>3</v>
@@ -4752,50 +4760,98 @@
       <c r="F36" s="9">
         <v>1</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="G36" s="9">
+        <v>3</v>
+      </c>
+      <c r="H36" s="9">
+        <v>4</v>
+      </c>
+      <c r="I36" s="9">
+        <v>8</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>2</v>
+      </c>
       <c r="L36" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>2</v>
+      </c>
+      <c r="P36" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>2</v>
+      </c>
+      <c r="S36" s="9">
+        <v>1</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36" s="9">
+        <v>2</v>
+      </c>
+      <c r="V36" s="9">
+        <v>2</v>
+      </c>
+      <c r="W36" s="9">
+        <v>1</v>
+      </c>
+      <c r="X36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>10</v>
+      </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
+      <c r="AE36" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AF36" s="9"/>
       <c r="AG36" s="9"/>
       <c r="AH36" s="9"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
-        <v>35</v>
-      </c>
-      <c r="B37" s="9">
-        <v>35</v>
+      <c r="AI36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>66</v>
+      </c>
+      <c r="B37" s="4">
+        <v>66</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>3</v>
@@ -4803,2102 +4859,343 @@
       <c r="F37" s="9">
         <v>1</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="G37" s="9">
+        <v>2</v>
+      </c>
+      <c r="H37" s="9">
+        <v>2</v>
+      </c>
+      <c r="I37" s="9">
+        <v>2</v>
+      </c>
+      <c r="J37" s="9">
+        <v>2</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1</v>
+      </c>
       <c r="L37" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>2</v>
+      </c>
+      <c r="P37" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>3</v>
+      </c>
+      <c r="R37" s="9">
+        <v>1</v>
+      </c>
+      <c r="S37" s="9">
+        <v>3</v>
+      </c>
+      <c r="T37" s="9">
+        <v>2</v>
+      </c>
+      <c r="U37" s="9">
+        <v>0</v>
+      </c>
+      <c r="V37" s="9">
+        <v>1</v>
+      </c>
+      <c r="W37" s="9">
+        <v>0</v>
+      </c>
+      <c r="X37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>10</v>
+      </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
+      <c r="AE37" s="9" t="s">
+        <v>185</v>
+      </c>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
-        <v>36</v>
-      </c>
-      <c r="B38" s="9">
-        <v>36</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="F38" s="9">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9">
-        <f>SUM(G38+H38+I38+J38+K38)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
-        <v>37</v>
-      </c>
-      <c r="B39" s="9">
-        <v>37</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
-        <v>38</v>
-      </c>
-      <c r="B40" s="9">
-        <v>38</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="9">
-        <v>1</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="9"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
-        <v>39</v>
-      </c>
-      <c r="B41" s="9">
-        <v>39</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
-        <v>40</v>
-      </c>
-      <c r="B42" s="9">
-        <v>40</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="9">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
-        <v>41</v>
-      </c>
-      <c r="B43" s="9">
-        <v>41</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="9">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="O43" s="9">
-        <v>1</v>
-      </c>
-      <c r="P43" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="9">
-        <v>0</v>
-      </c>
-      <c r="R43" s="9">
-        <v>5</v>
-      </c>
-      <c r="S43" s="9">
-        <v>5</v>
-      </c>
-      <c r="T43" s="9">
-        <v>2</v>
-      </c>
-      <c r="U43" s="9">
-        <v>0</v>
-      </c>
-      <c r="V43" s="9">
-        <v>2</v>
-      </c>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA43" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD43" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE43" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
-        <v>42</v>
-      </c>
-      <c r="B44" s="9">
-        <v>42</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9">
-        <v>1</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="9"/>
-    </row>
-    <row r="45" spans="1:34" ht="53.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
-        <v>43</v>
-      </c>
-      <c r="B45" s="9">
-        <v>43</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="9">
-        <v>1</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9"/>
-      <c r="AF45" s="9"/>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="9"/>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
-        <v>44</v>
-      </c>
-      <c r="B46" s="9">
-        <v>44</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="9">
-        <v>1</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
-        <v>45</v>
-      </c>
-      <c r="B47" s="9">
-        <v>45</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="9">
-        <v>1</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
-        <v>46</v>
-      </c>
-      <c r="B48" s="9">
-        <v>46</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="9">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
-        <v>47</v>
-      </c>
-      <c r="B49" s="9">
-        <v>47</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="9">
-        <v>1</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9"/>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
-        <v>48</v>
-      </c>
-      <c r="B50" s="9">
-        <v>48</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9">
-        <v>1</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9">
-        <f>SUM(G50+H50+I50+J50+K50)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="9"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
-        <v>49</v>
-      </c>
-      <c r="B51" s="9">
-        <v>49</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="9">
-        <v>1</v>
-      </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A52" s="9">
-        <v>50</v>
-      </c>
-      <c r="B52" s="9">
-        <v>50</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9">
-        <v>1</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="9"/>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
-        <v>51</v>
-      </c>
-      <c r="B53" s="9">
-        <v>51</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="9">
-        <v>1</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
-      <c r="AH53" s="9"/>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A54" s="9">
-        <v>52</v>
-      </c>
-      <c r="B54" s="9">
-        <v>52</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="9">
-        <v>1</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="9"/>
-      <c r="AG54" s="9"/>
-      <c r="AH54" s="9"/>
-    </row>
-    <row r="55" spans="1:34" ht="32.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
-        <v>53</v>
-      </c>
-      <c r="B55" s="9">
-        <v>53</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="9">
-        <v>1</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="9"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
-      <c r="AG55" s="9"/>
-      <c r="AH55" s="9"/>
-    </row>
-    <row r="56" spans="1:34" ht="43" x14ac:dyDescent="0.35">
-      <c r="A56" s="9">
-        <v>54</v>
-      </c>
-      <c r="B56" s="9">
-        <v>54</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="9">
-        <v>1</v>
-      </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="9"/>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A57" s="9">
-        <v>55</v>
-      </c>
-      <c r="B57" s="9">
-        <v>55</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9">
-        <v>1</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-      <c r="AB57" s="9"/>
-      <c r="AC57" s="9"/>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="9"/>
-      <c r="AF57" s="9"/>
-      <c r="AG57" s="9"/>
-      <c r="AH57" s="9"/>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A58" s="9">
-        <v>56</v>
-      </c>
-      <c r="B58" s="9">
-        <v>56</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="9">
-        <v>1</v>
-      </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="9"/>
-      <c r="AF58" s="9"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="9"/>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A59" s="9">
-        <v>57</v>
-      </c>
-      <c r="B59" s="9">
-        <v>57</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" s="9">
-        <v>1</v>
-      </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="9"/>
-      <c r="AG59" s="9"/>
-      <c r="AH59" s="9"/>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A60" s="9">
-        <v>58</v>
-      </c>
-      <c r="B60" s="9">
-        <v>58</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="9">
-        <v>1</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
-      <c r="AB60" s="9"/>
-      <c r="AC60" s="9"/>
-      <c r="AD60" s="9"/>
-      <c r="AE60" s="9"/>
-      <c r="AF60" s="9"/>
-      <c r="AG60" s="9"/>
-      <c r="AH60" s="9"/>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A61" s="9">
-        <v>59</v>
-      </c>
-      <c r="B61" s="9">
-        <v>59</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" s="9">
-        <v>1</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="9"/>
-      <c r="AF61" s="9"/>
-      <c r="AG61" s="9"/>
-      <c r="AH61" s="9"/>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A62" s="9">
-        <v>60</v>
-      </c>
-      <c r="B62" s="9">
-        <v>60</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="9">
-        <v>1</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
-      <c r="AB62" s="9"/>
-      <c r="AC62" s="9"/>
-      <c r="AD62" s="9"/>
-      <c r="AE62" s="9"/>
-      <c r="AF62" s="9"/>
-      <c r="AG62" s="9"/>
-      <c r="AH62" s="9"/>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
-        <v>61</v>
-      </c>
-      <c r="B63" s="9">
-        <v>61</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="9">
-        <v>1</v>
-      </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9">
-        <f>SUM(G63+H63+I63+J63+K63)</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-      <c r="AA63" s="9"/>
-      <c r="AB63" s="9"/>
-      <c r="AC63" s="9"/>
-      <c r="AD63" s="9"/>
-      <c r="AE63" s="9"/>
-      <c r="AF63" s="9"/>
-      <c r="AG63" s="9"/>
-      <c r="AH63" s="9"/>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A64" s="9">
-        <v>62</v>
-      </c>
-      <c r="B64" s="9">
-        <v>62</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="9">
-        <v>1</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="9"/>
-      <c r="AC64" s="9"/>
-      <c r="AD64" s="9"/>
-      <c r="AE64" s="9"/>
-      <c r="AF64" s="9"/>
-      <c r="AG64" s="9"/>
-      <c r="AH64" s="9"/>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
-        <v>63</v>
-      </c>
-      <c r="B65" s="9">
-        <v>63</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="9">
-        <v>1</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="9"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
-      <c r="AG65" s="9"/>
-      <c r="AH65" s="9"/>
-    </row>
-    <row r="66" spans="1:34" ht="74.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9">
-        <v>64</v>
-      </c>
-      <c r="B66" s="9">
-        <v>64</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="9">
-        <v>1</v>
-      </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
-      <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
-      <c r="AD66" s="9"/>
-      <c r="AE66" s="9"/>
-      <c r="AF66" s="9"/>
-      <c r="AG66" s="9"/>
-      <c r="AH66" s="9"/>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A67" s="9">
-        <v>65</v>
-      </c>
-      <c r="B67" s="9">
-        <v>65</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="9">
-        <v>1</v>
-      </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-      <c r="AA67" s="9"/>
-      <c r="AB67" s="9"/>
-      <c r="AC67" s="9"/>
-      <c r="AD67" s="9"/>
-      <c r="AE67" s="9"/>
-      <c r="AF67" s="9"/>
-      <c r="AG67" s="9"/>
-      <c r="AH67" s="9"/>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A68" s="9">
-        <v>66</v>
-      </c>
-      <c r="B68" s="9">
-        <v>66</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" s="9">
-        <v>1</v>
-      </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9">
-        <f t="shared" ref="L68:L72" si="1">SUM(G68+H68+I68+J68+K68)</f>
-        <v>0</v>
-      </c>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
-      <c r="AD68" s="9"/>
-      <c r="AE68" s="9"/>
-      <c r="AF68" s="9"/>
-      <c r="AG68" s="9"/>
-      <c r="AH68" s="9"/>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A69" s="9">
-        <v>67</v>
-      </c>
-      <c r="B69" s="9">
-        <v>67</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="9"/>
-      <c r="AG69" s="9"/>
-      <c r="AH69" s="9"/>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A70" s="9">
-        <v>68</v>
-      </c>
-      <c r="B70" s="9">
-        <v>68</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="9">
-        <v>1</v>
-      </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
-      <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
-      <c r="AD70" s="9"/>
-      <c r="AE70" s="9"/>
-      <c r="AF70" s="9"/>
-      <c r="AG70" s="9"/>
-      <c r="AH70" s="9"/>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A71" s="9">
-        <v>69</v>
-      </c>
-      <c r="B71" s="9">
-        <v>69</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="9">
-        <v>1</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-      <c r="AA71" s="9"/>
-      <c r="AB71" s="9"/>
-      <c r="AC71" s="9"/>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="9"/>
-      <c r="AF71" s="9"/>
-      <c r="AG71" s="9"/>
-      <c r="AH71" s="9"/>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A72" s="4">
-        <v>70</v>
-      </c>
-      <c r="B72" s="4">
-        <v>70</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="9">
-        <v>1</v>
-      </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-      <c r="AA72" s="9"/>
-      <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="9"/>
-      <c r="AF72" s="9"/>
-      <c r="AG72" s="9"/>
-      <c r="AH72" s="9"/>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B73" s="4"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
+      <c r="AI37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:AB71">
@@ -6934,31 +5231,31 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -6966,13 +5263,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -6980,13 +5277,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -6994,13 +5291,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -7008,13 +5305,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -7022,13 +5319,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -7036,13 +5333,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -7050,13 +5347,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -7064,13 +5361,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -7078,13 +5375,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -7092,13 +5389,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -7106,13 +5403,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -7120,13 +5417,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -7134,13 +5431,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -7148,13 +5445,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -7162,13 +5459,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -7176,13 +5473,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -7190,13 +5487,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7204,13 +5501,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7218,13 +5515,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -7232,13 +5529,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -7246,13 +5543,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -7260,13 +5557,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -7274,13 +5571,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7288,13 +5585,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -7302,13 +5599,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -7316,13 +5613,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -7330,13 +5627,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -7344,13 +5641,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -7358,13 +5655,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7372,13 +5669,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -7386,13 +5683,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -7400,13 +5697,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -7414,13 +5711,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -7428,13 +5725,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -7442,13 +5739,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
